--- a/ParabankTestingProject/src/test/resources/RegistrationParabank.xlsx
+++ b/ParabankTestingProject/src/test/resources/RegistrationParabank.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E1836176-F8A6-4831-9A10-805E0D42BBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E71D84EF-811E-43D9-A3C9-F8BFD462BEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{0D876D7C-715D-4305-8744-5D20962653D5}"/>
   </bookViews>
@@ -93,10 +93,10 @@
     <t>prabal@123</t>
   </si>
   <si>
-    <t>saiuser1290180</t>
-  </si>
-  <si>
-    <t>prabaluser1290180</t>
+    <t>saiuser12901801</t>
+  </si>
+  <si>
+    <t>prabaluser12901801</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F29E85-E66D-4202-86DC-C7460B7C90AC}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -601,7 +601,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
